--- a/data-products/table-to-markdown.xlsx
+++ b/data-products/table-to-markdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy.collins/Documents/projects/data-platform-products/data-products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800CC275-26A6-1240-B9EE-20E32CDB7083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD259B-2651-E141-86A0-5752541442E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="-21660" windowWidth="27640" windowHeight="16940" xr2:uid="{F8798991-C800-DB47-8B9E-697A5345C800}"/>
+    <workbookView xWindow="18000" yWindow="-21700" windowWidth="27640" windowHeight="16940" xr2:uid="{F8798991-C800-DB47-8B9E-697A5345C800}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Statistical methods</t>
   </si>
   <si>
-    <t>Statistics is the science and technique of collecting, processing, interpreting and presenting data based on rules of mathematics and the laws of logic. Statistical methods are used to identify data issues. Statistical methods include regression, correlation, min, max, standard deviation, mean and clustering.</t>
-  </si>
-  <si>
     <t>Transformation</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Group duplicates</t>
+  </si>
+  <si>
+    <t>Statistical methods are used to identify data issues and provide cleaning or flagging of data issues.</t>
   </si>
 </sst>
 </file>
@@ -553,14 +553,14 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.33203125" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -674,7 +674,7 @@
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -754,7 +754,7 @@
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -840,23 +840,23 @@
         <v>statistical-methods</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
-        <v>| statistical-methods | Statistical methods | Statistics is the science and technique of collecting, processing, interpreting and presenting data based on rules of mathematics and the laws of logic. Statistical methods are used to identify data issues. Statistical methods include regression, correlation, min, max, standard deviation, mean and clustering. |</v>
+        <v>| statistical-methods | Statistical methods | Statistical methods are used to identify data issues and provide cleaning or flagging of data issues. |</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>suppress-small-values</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>suppress-small-values</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -865,14 +865,14 @@
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>redaction</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>redaction</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -881,14 +881,14 @@
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>transformation</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>transformation</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -897,14 +897,14 @@
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>type-conversion</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>type-conversion</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
